--- a/document/项目管理/项目风险管理.xlsx
+++ b/document/项目管理/项目风险管理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623CBEB-F29C-054C-AFD6-464E42A3D8CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FF153-232A-1645-A79E-37E7E1216558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CB38FE80-8795-1A4D-BD1D-B527E639DECF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{CB38FE80-8795-1A4D-BD1D-B527E639DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="项目风险管理表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>风险编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,13 +79,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、每周都需更新状态为“未关闭”的风险；
-2、风险管理分成三个环节：识别分析、策划应对措施、跟踪直至关闭或转化为问题；
-3、风险识别：识别风险，分析其概率和影响度，然后修订风险的属性；请重点关注风险系数值为前10的“十大风险”；
-4、控制措施：不是所有的风险都需要应对措施--只有高概率且高影响度的风险才需要处理；对风险的处理可从两个角度入手--降低其发生的可能性（潜在风险）、降低其发生后的影响度（现实风险）；
-5、“主要生存期”一列中填写该风险存在的主要的阶段，例如：项目全过程、启动阶段、策划阶段、需求分析、编码实现、软件测试、试运行和系统验收等；
-6、如果某风险在不同的“生存期”属于不同的“风险类型”和/或采取不同的“控制措施”，需作为多条风险分别列出；
-7、列在本表中的风险，只能增加不能删减，对于已经不存在的风险，须填写关闭标识与状态。</t>
+    <t>2019.08.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少开发人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招开发人员3名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、风险严重性、风险可能性上限均为5，风险系数上限为100
+2、每周都需更新状态为“未关闭”的风险；
+3、风险管理分成三个环节：识别分析、策划应对措施、跟踪直至关闭或转化为问题；
+4、风险识别：识别风险，分析其概率和影响度，然后修订风险的属性；请重点关注风险系数值为前10的“十大风险”；
+5、控制措施：不是所有的风险都需要应对措施--只有高概率且高影响度的风险才需要处理；对风险的处理可从两个角度入手--降低其发生的可能性（潜在风险）、降低其发生后的影响度（现实风险）；
+6、“主要生存期”一列中填写该风险存在的主要的阶段，例如：项目全过程、启动阶段、策划阶段、需求分析、编码实现、软件测试、试运行和系统验收等；
+7、如果某风险在不同的“生存期”属于不同的“风险类型”和/或采取不同的“控制措施”，需作为多条风险分别列出；
+8、列在本表中的风险，只能增加不能删减，对于已经不存在的风险，须填写关闭标识与状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,9 +329,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,50 +386,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,459 +705,476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2F9BE-A5B7-CC4D-B152-66183DFF13B1}">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="41" customHeight="1">
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="9"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="9"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="9"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="9"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="9"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="9"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="9"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="9"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="9"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="9"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="10"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="C25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C25:K33"/>
+    <mergeCell ref="C25:K34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/项目管理/项目风险管理.xlsx
+++ b/document/项目管理/项目风险管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htj\Desktop\BlockChain\document\项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FF153-232A-1645-A79E-37E7E1216558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3120599A-9143-4C95-BF0F-0B699F17B4CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{CB38FE80-8795-1A4D-BD1D-B527E639DECF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB38FE80-8795-1A4D-BD1D-B527E639DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="项目风险管理表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>风险编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,12 +109,52 @@
 8、列在本表中的风险，只能增加不能删减，对于已经不存在的风险，须填写关闭标识与状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019.09.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表结构的更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求更改风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端奇数人员进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端设计风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太坊的定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对系统设计的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,15 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -353,21 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +396,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,6 +413,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,36 +760,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2F9BE-A5B7-CC4D-B152-66183DFF13B1}">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="10.90625" style="1"/>
+    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.90625" style="1"/>
+    <col min="10" max="10" width="22.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="17"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,420 +820,477 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="41" customHeight="1">
-      <c r="B4" s="3">
+    <row r="4" spans="2:11" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>25</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="4"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="25">
+        <v>4</v>
+      </c>
+      <c r="G5" s="25">
+        <v>5</v>
+      </c>
+      <c r="H5" s="25">
+        <v>50</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="25">
+        <v>5</v>
+      </c>
+      <c r="G7" s="25">
+        <v>5</v>
+      </c>
+      <c r="H7" s="25">
+        <v>50</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="3:11">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="3:11">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="3:11">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="3:11">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="24">
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="C25:K34"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/项目管理/项目风险管理.xlsx
+++ b/document/项目管理/项目风险管理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htj\Desktop\BlockChain\document\项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\bigdata\BlockChain\document\项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3120599A-9143-4C95-BF0F-0B699F17B4CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A9002-D9CA-4603-8CDF-029ECA66B3CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB38FE80-8795-1A4D-BD1D-B527E639DECF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>风险编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>对系统设计的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用敏捷开发模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,6 +408,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,30 +454,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +773,7 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -773,25 +785,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -851,428 +863,445 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="23">
+      <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="17">
         <v>4</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="17">
         <v>5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="17">
         <v>50</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+      <c r="B7" s="25">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>50</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F9" s="17">
         <v>5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G9" s="17">
         <v>5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H9" s="17">
         <v>50</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="8"/>
     </row>
     <row r="25" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="33">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -1288,6 +1317,16 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/项目管理/项目风险管理.xlsx
+++ b/document/项目管理/项目风险管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="项目风险管理表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>风险编号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>人员风险</t>
   </si>
   <si>
+    <t>延长工期</t>
+  </si>
+  <si>
     <t>事先与负责人沟通协调工作安排。</t>
   </si>
   <si>
@@ -116,6 +119,12 @@
   </si>
   <si>
     <t>详细划分测试项，并考虑用例执行时间。</t>
+  </si>
+  <si>
+    <t>2019.09.05</t>
+  </si>
+  <si>
+    <t>开发周期延长</t>
   </si>
   <si>
     <t>备注</t>
@@ -136,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -158,20 +167,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -181,12 +176,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,30 +240,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,76 +316,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,6 +326,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,175 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +685,39 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,21 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -719,31 +746,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +776,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,158 +791,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,6 +982,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,9 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1005,6 +1023,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1334,7 +1355,7 @@
   <dimension ref="B2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1344,548 +1365,572 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="2:11">
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>25</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="24"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:11">
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="14">
         <v>5</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>4</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <v>20</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:11">
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>10</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:11">
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>5</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <v>5</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:11">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>5</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>15</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K8" s="28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>6</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="25" t="s">
+      <c r="I9" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="K9" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:11">
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <v>5</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>3</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>15</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="25" t="s">
+      <c r="I10" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="26"/>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:11">
+      <c r="B11" s="15">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17">
+        <v>5</v>
+      </c>
+      <c r="H11" s="17">
+        <v>25</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="26"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="26"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="26"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="26"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="26"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="26"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="26"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="26"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="27"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="24" ht="16" customHeight="1" spans="2:11">
-      <c r="B24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
